--- a/ready_coding/Nina_2020-03-23.xlsx
+++ b/ready_coding/Nina_2020-03-23.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nailc\Documents\coronavirus_data\ready_coding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nailc\Documents\coronavirus_cases\ready_coding\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6816BE23-1BE7-4A35-8E08-DEA4EEA26212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82A99570-36AA-4288-AAA3-B81A2AA17AA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="78">
   <si>
     <t>country_id</t>
   </si>
@@ -179,69 +179,21 @@
     <t>Moldova</t>
   </si>
   <si>
-    <t>variable_name</t>
-  </si>
-  <si>
-    <t>description</t>
-  </si>
-  <si>
-    <t>category_description</t>
-  </si>
-  <si>
     <t>measure_n</t>
   </si>
   <si>
-    <t>Мера, предпринятая государством. n обозначает порядковый номер меры даже если она была одна. Порядковый номер в данном случае не важен, поскольку определяется столбцом start_date_n, где n соответствует по номеру.</t>
-  </si>
-  <si>
     <t>start_date_n</t>
   </si>
   <si>
-    <t>Дата начала действия measure_n.</t>
-  </si>
-  <si>
-    <t>Записывается в формате yyyy-mm-dd.</t>
-  </si>
-  <si>
     <t>end_date_n</t>
   </si>
   <si>
-    <t>Дата фактического окончания measure_n.</t>
-  </si>
-  <si>
-    <t>Записывается в формате yyyy-mm-dd. Если дата не известна, то ничего не писать в ячейке.</t>
-  </si>
-  <si>
-    <t>Ссылка (URL) на источник (желательно государственный портал или общепризнанный источник доподлинных новостей) о measure_n, start_date_n и end_date_n</t>
-  </si>
-  <si>
-    <t>Если источников несколько, то они записываются через точку с запятой.</t>
-  </si>
-  <si>
-    <t>ID страны по кодировке V-Dem (для объединения с их данными)</t>
-  </si>
-  <si>
-    <t>ID страны по кодировке Correlates of War (для объединения с разными датасетами)</t>
-  </si>
-  <si>
-    <t>ID страны по кодировке V-Dem/ISO (в большинстве случаев) - для объединения с разными датасетами.</t>
-  </si>
-  <si>
     <t>Название страны по кодировке V-Dem</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Если в каких-то регионах вводили карантин в школах или университетах в разное время, то писать дату начала отмены занятий в учреждениях</t>
-  </si>
-  <si>
     <t>https://www.gazeta.ru/social/2020/03/22/13017427.shtml; https://www.bbc.com/russian/features-51978957; https://oblast45.ru/publication/31184; https://sib.fm/news/2020/03/16/shkoly-zakryli-na-karantin-iz-za-koronavirusa-v-sibiri; https://rossaprimavera.ru/news/e71055cf; https://www.stav.kp.ru/daily/27106.4/4181223/;  https://www.rbc.ru/society/14/03/2020/5e6bd22d9a7947cf0ac76b8e;https://www.mos.ru/upload/documents/docs/17-YMot10032020(2).pdf; https://www.mos.ru/upload/documents/docs/21-YM.pdf; https://www.gazeta.ru/social/2020/03/21/13016509.shtml; https://www.rbc.ru/society/13/03/2020/5e6baf549a7947c2f0c5f9d2?from=materials_on_subject</t>
   </si>
   <si>
-    <t>1) Ограничение на въезд и/или выезд ряда лиц (в т.ч. иностранных граждан или отмена рейсов); 2) Запрет на въезд и/или выезд любых граждан (своих и чужих); 3) ограничение количества собравшихся в общественных местах; 4) централизованное частичное или полное закрытие учебных заведений; 5) закрытие государственных учреждений (не образовательных); 6) комендантский час, карантин в отдельном регионе; 7) чрезвычайное положение в одном или ряде регионе или населённых пунктов; 8) чрезвычайное положение в стране; 9) запрет на собрания; 10) ограничение на ведение частного бизнеса (клубы, бары, рестораны); 11) карантин в стране вне зависимости от региона; 12) ограничение передвижения внутри страны.</t>
-  </si>
-  <si>
     <t>measure_12</t>
   </si>
   <si>
@@ -264,6 +216,45 @@
   </si>
   <si>
     <t>https://www.reuters.com/article/us-health-coronavirus-armenia-emergency/armenia-declares-one-month-state-of-emergency-for-coronavirus-idUSKBN2131PW; https://armenpress.am/rus/news/1006858.html; https://www.reuters.com/article/health-coronavirus-armenia/armenia-closes-all-malls-and-shops-except-for-grocery-stores-due-to-coronavirus-idUSL8N2BE0J4; https://www.reuters.com/article/health-coronavirus-armenia-travel/armenia-bans-entry-of-16-countries-citizens-over-coronavirus-deputy-pm-idUSR4N2B501M; https://www.reuters.com/article/us-health-coronavirus-armenia-russia/armenia-and-russia-to-restrict-passenger-traffic-for-two-weeks-armenian-pm-idUSKBN2131QH; https://www.reuters.com/article/healt-coronavirus-armenia/armenia-shuts-down-fourth-largest-city-over-coronavirus-idUSL8N2B817D; https://www.reuters.com/article/us-health-coronavirus-armenia/armenia-shuts-educational-institutions-until-march-23-over-coronavirus-pm-idUSKBN21012G; https://www.reuters.com/article/us-health-coronavirus-iran-armenia/armenia-to-temporarily-suspend-visa-free-travel-for-iranians-over-coronavirus-pm-idUSKBN20P0Z6; https://www.reuters.com/article/us-china-health-armenia-iran/armenia-seals-iran-border-after-coronavirus-reports-idUSKCN20H0LS; https://ria.ru/20200316/1568679477.html; https://www.aravot-ru.am/2020/03/23/324298/</t>
+  </si>
+  <si>
+    <t>Measure taken by national or regional government. _n is just a number. The rank does not matter because the data will be sorted in the code anyways (sorted by start_date_n).</t>
+  </si>
+  <si>
+    <t>1) Limitations on the entry to/departure from country for a number of people (including foreighners or cancellation of the flights); 2) Ban on the entry to/departure from country of all people with exception of emergency flights; 3) Limit on the number of people that can gather in the streets; 4) Centralised partial or full shitdown of education establishements; 5) Shutdown of government offices (not educational); 6) curfew or quarantine in one or several subnational administrative units or settlements; 7) Emergency in one or several subnational administrative units or settlements; 8) National emergency; 9) Ban on all gatherings in the streets; 10) Limits on the operation of the private business (clubs, barss, restaurants, and other places of leisure); 11) National quarantine; 12) Limitations on the movement within the country.</t>
+  </si>
+  <si>
+    <t>If in some regions/settlements the date of school/university shutdown is different, code the earliest one.</t>
+  </si>
+  <si>
+    <t>Date of the start of measure_n.</t>
+  </si>
+  <si>
+    <t>Format: yyyy-mm-dd</t>
+  </si>
+  <si>
+    <t>Date of factual end of measure_n.</t>
+  </si>
+  <si>
+    <t>Format: yyyy-mm-dd. Do not code anything if the date is not known.</t>
+  </si>
+  <si>
+    <t>URL to the source (preferrably government website or well-known source of non-fake news about measure_n, start_date_n, and end_date_n</t>
+  </si>
+  <si>
+    <t>Separate several sources with ;</t>
+  </si>
+  <si>
+    <t>country ID according to V-Dem Institute</t>
+  </si>
+  <si>
+    <t>country ID according to the Correlates of War</t>
+  </si>
+  <si>
+    <t>country ID according to V-Dem/ISO (in most cases)</t>
+  </si>
+  <si>
+    <t>country name according to V-Dem</t>
   </si>
 </sst>
 </file>
@@ -604,7 +595,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="D1" activePane="topRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="J11" sqref="J11"/>
@@ -769,13 +760,13 @@
         <v>37</v>
       </c>
       <c r="AM1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="AN1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="AO1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.35">
@@ -792,7 +783,7 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -857,7 +848,7 @@
         <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <v>11</v>
@@ -934,7 +925,7 @@
         <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -993,7 +984,7 @@
         <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F5" s="3">
         <v>11</v>
@@ -1069,7 +1060,7 @@
         <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="F7">
         <v>12</v>
@@ -1141,7 +1132,7 @@
         <v>51</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>10</v>
@@ -1187,107 +1178,104 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
+    <col min="1" max="1" width="8.7265625" style="2"/>
+    <col min="2" max="2" width="34.54296875" style="2" customWidth="1"/>
     <col min="3" max="3" width="78.453125" style="2" customWidth="1"/>
     <col min="4" max="4" width="37.81640625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" ht="145" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="B2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
